--- a/biology/Histoire de la zoologie et de la botanique/Theodor_Pleske/Theodor_Pleske.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Theodor_Pleske/Theodor_Pleske.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Theodor ou Théodore[1] (ou Fedor Edouardovitch) Pleske est un ornithologue russe d'origine allemande de la Baltique, né le 11 (23 juillet 1858) à Peterhof et mort le 1er août 1932 à Léningrad.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Theodor ou Théodore (ou Fedor Edouardovitch) Pleske est un ornithologue russe d'origine allemande de la Baltique, né le 11 (23 juillet 1858) à Peterhof et mort le 1er août 1932 à Léningrad.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pleske est le fils d'un officier, futur général-major, d'origine allemande, Eduard Pleske (1817-1873), dont la famille originaire de Silésie s'est installée pendant deux générations à Riga, et de sa femme Margarita Elizabeth Oom (1822-1880). Il poursuit ses études au lycée classique N°2 de Saint-Pétersbourg, puis à la fameuse Sankt-Petri-Schule (1873-1878). Il entre ensuite au département des sciences naturelles de la faculté de physique et de mathématiques de l'université impériale de Saint-Pétersbourg en 1878 qu'il termine en 1882 avec le grade de candidat en ornithologie. En 1880, la Société des naturalistes de Saint-Pétersbourg lui commande l'étude de la faune de la péninsule de Kola et de l'Oural méridional, et il part pour six ans.
-À son retour en 1886, il est nommé conservateur de la collection d'ornithologie du musée impérial d'histoire naturelle de l'Académie des sciences de Saint-Pétersbourg. Il étudie les oiseaux recueillis par Przewalski (1839-1888) et Grumm-Grżymajło (1860-1936) dans leurs expéditions d'Asie centrale. Il devient directeur effectif du musée zoologique de Saint-Pétersbourg en 1893 (où il donne l'impulsion au département d'entomologie) et nommé la même année membre extraordinaire de l'Académie des sciences de Saint-Pétersbourg (avec le rang de conseiller d'État effectif), mais en donne sa démission en 1896[2]. Valentin Bianchi lui succède à la tête de l'institut d'ornithologie.
+À son retour en 1886, il est nommé conservateur de la collection d'ornithologie du musée impérial d'histoire naturelle de l'Académie des sciences de Saint-Pétersbourg. Il étudie les oiseaux recueillis par Przewalski (1839-1888) et Grumm-Grżymajło (1860-1936) dans leurs expéditions d'Asie centrale. Il devient directeur effectif du musée zoologique de Saint-Pétersbourg en 1893 (où il donne l'impulsion au département d'entomologie) et nommé la même année membre extraordinaire de l'Académie des sciences de Saint-Pétersbourg (avec le rang de conseiller d'État effectif), mais en donne sa démission en 1896. Valentin Bianchi lui succède à la tête de l'institut d'ornithologie.
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(de) «Ornithologische Notizen aus Ost-Russland» («Cab. Joun. f. Orn.», 1878),
-(de) «Beitrage zur Ornithologie der St.-Petersburger Gouvernements» («Beitr. Kenntn. Russ. Reichs.», [2], IV, 1881),
-(de) «Übersicht des Saugethiere und Vogel der Kola-Halbinsel» («Beitr. Kenntn. Russ. Reich.», [2], VII, 1884 и 1886),
+(de) «Beitrage zur Ornithologie der St.-Petersburger Gouvernements» («Beitr. Kenntn. Russ. Reichs.», , IV, 1881),
+(de) «Übersicht des Saugethiere und Vogel der Kola-Halbinsel» («Beitr. Kenntn. Russ. Reich.», , VII, 1884 и 1886),
 (la) «Ornithographia rossica» (Saint-Pétersbourg),
 (ru) «Научные результаты путешествия Пржевальского. Птицы» [Résultats scientifiques de l'expédition de Przewalski],
 (de) «Revision d. turkest. Ornis» (Saint-Pétersbourg, 1888),
@@ -579,7 +595,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(Tetraoninae) Lagopus muta pleskei
 (Locustellidae) Locustella pleskei
